--- a/study2/presentation_for_paper/study2b_analysis_list.xlsx
+++ b/study2/presentation_for_paper/study2b_analysis_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/study/study2/presentation_for_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A232593B-79EC-48A8-9E9A-128778273729}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A50681B-4A8C-4CE3-8A7E-03509B1977D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{67012427-3811-46BE-B66C-BF0DC73F7589}"/>
   </bookViews>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Testing Hypothesis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Primary Variables</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -82,22 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>H7.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H7.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H7.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Big Five Personality Scores (Personality Adapted Responses)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Overall Attitude Towards AI Agent</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -112,13 +92,30 @@
   <si>
     <t>Investigating how higher or lower overall attitude towards AI agent affect engagement, controlling for other variables.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Big Five Personality Scores (=Personality Adapted Responses)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H5.1</t>
+  </si>
+  <si>
+    <t>H5.2</t>
+  </si>
+  <si>
+    <t>H5.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,25 +134,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -164,18 +162,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -184,24 +227,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,22 +292,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:colOff>272143</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>145143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>148772</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>263978</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14514</xdr:rowOff>
+      <xdr:rowOff>151492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B353ABB-A662-99A0-CA7F-066F365B460C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BBDF48-DF7E-1A49-10BF-8F77488E0B8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -263,8 +330,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="163286" y="127000"/>
-          <a:ext cx="9256486" cy="2608943"/>
+          <a:off x="272143" y="145143"/>
+          <a:ext cx="8600621" cy="2727778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,120 +670,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0C70AE-C798-4765-8779-5C2EA57DE01F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H7" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="25.08203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.9140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:7" ht="4.5" customHeight="1"/>
+    <row r="2" spans="2:7" ht="18" customHeight="1">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="58.5" customHeight="1">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="5" spans="2:7" ht="58.5" customHeight="1">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="58">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    <row r="6" spans="2:7" ht="58.5" customHeight="1">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6" si="0">B5+1</f>
         <v>3</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="58">
-      <c r="A4" s="4">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58">
-      <c r="A5" s="4">
-        <f t="shared" ref="A5" si="0">A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="7" spans="2:7" ht="4" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,7 +801,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study2/presentation_for_paper/study2b_analysis_list.xlsx
+++ b/study2/presentation_for_paper/study2b_analysis_list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A50681B-4A8C-4CE3-8A7E-03509B1977D1}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5305ED29-A27A-4CC0-9743-33AD638751C1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{67012427-3811-46BE-B66C-BF0DC73F7589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1"/>
@@ -109,6 +110,17 @@
   </si>
   <si>
     <t>H5.3</t>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Traits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O, C, E, A</t>
   </si>
 </sst>
 </file>
@@ -153,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -221,53 +233,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -288,6 +352,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE19874-72C8-A802-2442-1657995686EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="336550" y="228600"/>
+          <a:ext cx="9601200" cy="2578100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -351,6 +481,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0C70AE-C798-4765-8779-5C2EA57DE01F}">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:H7"/>
+      <selection activeCell="I1" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -681,115 +815,131 @@
     <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.4140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.9140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="4.5" customHeight="1"/>
-    <row r="2" spans="2:7" ht="18" customHeight="1">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:8" ht="4.5" customHeight="1"/>
+    <row r="2" spans="2:8" ht="18" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="58.5" customHeight="1">
+    <row r="4" spans="2:8" ht="54" customHeight="1">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="58.5" customHeight="1">
+    <row r="5" spans="2:8" ht="54" customHeight="1">
       <c r="B5" s="2">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="58.5" customHeight="1">
+    <row r="6" spans="2:8" ht="54" customHeight="1">
       <c r="B6" s="4">
         <f t="shared" ref="B6" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="4" customHeight="1"/>
+    <row r="7" spans="2:8" ht="4" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -797,10 +947,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6BEF16-F102-4AE3-9D7D-360897DB4CF8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E215CF4-85B4-4B84-A2CF-85497D7B70D4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
